--- a/public/data/soil/soil_table_chad.xlsx
+++ b/public/data/soil/soil_table_chad.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>532713.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>287.272</v>
+        <v>316.164</v>
       </c>
     </row>
     <row r="3">
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>594457.6</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>200.665</v>
+        <v>216.409</v>
       </c>
     </row>
     <row r="4">
@@ -897,10 +897,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>62.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>455928.8</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>228.65</v>
+        <v>242.879</v>
       </c>
     </row>
     <row r="5">
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>509237.7</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>73.261</v>
+        <v>93.527</v>
       </c>
     </row>
     <row r="6">
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5954.9</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.523</v>
+        <v>18.002</v>
       </c>
     </row>
     <row r="7">
@@ -1002,10 +1002,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>9843.2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>601906.9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1014,10 +1014,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.773</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>224.598</v>
+        <v>251.036</v>
       </c>
     </row>
     <row r="8">
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>254754.8</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>168.62</v>
+        <v>206.263</v>
       </c>
     </row>
     <row r="9">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>114329.8</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>145.355</v>
+        <v>141.235</v>
       </c>
     </row>
     <row r="10">
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>16447.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.21</v>
+        <v>92.869</v>
       </c>
     </row>
     <row r="11">
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>33370.9</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3.99</v>
+        <v>33.053</v>
       </c>
     </row>
     <row r="12">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>186711.6</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>194.08</v>
+        <v>201.009</v>
       </c>
     </row>
     <row r="13">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>209796.1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>193.158</v>
+        <v>207.741</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>543212.2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>113.8</v>
+        <v>135.334</v>
       </c>
     </row>
     <row r="15">
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>414.2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>207911.6</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>109.942</v>
+        <v>115.191</v>
       </c>
     </row>
     <row r="16">
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9799.9</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>354893.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7.808</v>
+        <v>2.298</v>
       </c>
       <c r="K16" t="n">
-        <v>242.758</v>
+        <v>255.956</v>
       </c>
     </row>
     <row r="17">
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>217574.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>206.253</v>
+        <v>198.239</v>
       </c>
     </row>
     <row r="18">
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>156100.6</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>130.52</v>
+        <v>141.627</v>
       </c>
     </row>
     <row r="19">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>252697.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1437,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>278.784</v>
+        <v>328.661</v>
       </c>
     </row>
     <row r="20">
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>52456.4</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>18.061</v>
+        <v>43.964</v>
       </c>
     </row>
     <row r="21">
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>308514.6</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>235.155</v>
+        <v>274.115</v>
       </c>
     </row>
     <row r="22">
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99984.6</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>160.881</v>
+        <v>154.028</v>
       </c>
     </row>
     <row r="23">
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>151.9</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>139745.6</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1574,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.121</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>126.939</v>
+        <v>122.141</v>
       </c>
     </row>
     <row r="24">
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>207457.4</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>168.754</v>
+        <v>215.587</v>
       </c>
     </row>
     <row r="25">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>72945.4</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1647,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>54.414</v>
+        <v>59.453</v>
       </c>
     </row>
     <row r="26">
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>141203.6</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>104.949</v>
+        <v>88.391</v>
       </c>
     </row>
     <row r="27">
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17910.6</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>264051</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1714,10 +1714,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.208</v>
+        <v>6.14</v>
       </c>
       <c r="K27" t="n">
-        <v>190.388</v>
+        <v>200.948</v>
       </c>
     </row>
     <row r="28">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>214980.8</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>164.897</v>
+        <v>173.504</v>
       </c>
     </row>
     <row r="29">
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>253220.5</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>217.173</v>
+        <v>211.969</v>
       </c>
     </row>
     <row r="30">
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>304827.8</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>244.613</v>
+        <v>254.041</v>
       </c>
     </row>
     <row r="31">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>97080.7</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>63.349</v>
+        <v>57.321</v>
       </c>
     </row>
     <row r="32">
@@ -1874,25 +1874,25 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>271334</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>219.31</v>
+        <v>239.159</v>
       </c>
     </row>
     <row r="33">
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>141641.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>133.401</v>
+        <v>166.19</v>
       </c>
     </row>
     <row r="34">
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>303863.2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>231.35</v>
+        <v>253.008</v>
       </c>
     </row>
     <row r="35">
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>132533.1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>116.024</v>
+        <v>110.446</v>
       </c>
     </row>
     <row r="36">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>150090.4</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>168.38</v>
+        <v>179.909</v>
       </c>
     </row>
     <row r="37">
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>915.1</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>305382.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.911</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>314.196</v>
+        <v>335.558</v>
       </c>
     </row>
     <row r="38">
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>451726.3</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>300.772</v>
+        <v>320.942</v>
       </c>
     </row>
     <row r="39">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>161370.1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.162</v>
+        <v>114.511</v>
       </c>
     </row>
     <row r="40">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>365721.3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>192.775</v>
+        <v>200.54</v>
       </c>
     </row>
     <row r="41">
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>213782.4</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>337.509</v>
+        <v>321.715</v>
       </c>
     </row>
     <row r="42">
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>99950.7</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>143.224</v>
+        <v>145.932</v>
       </c>
     </row>
     <row r="43">
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>439512.8</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>424.394</v>
+        <v>417.575</v>
       </c>
     </row>
     <row r="44">
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>170027.2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>65.546</v>
+        <v>79.123</v>
       </c>
     </row>
     <row r="45">
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>428184.3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>195.412</v>
+        <v>207.877</v>
       </c>
     </row>
     <row r="46">
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>421968.7</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.508</v>
+        <v>66.27</v>
       </c>
     </row>
     <row r="47">
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>310.7</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>277643.3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.098</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
-        <v>104.838</v>
+        <v>112.025</v>
       </c>
     </row>
     <row r="48">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>446286.6</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>392.81</v>
+        <v>414.827</v>
       </c>
     </row>
     <row r="49">
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>54501.1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>37.498</v>
+        <v>22.599</v>
       </c>
     </row>
     <row r="50">
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>374175.3</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>234.222</v>
+        <v>252.885</v>
       </c>
     </row>
     <row r="51">
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>165595.1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>173.592</v>
+        <v>215.525</v>
       </c>
     </row>
     <row r="52">
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>174.7</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.01</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="53">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>16302.2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1.196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>367630.3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2662,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>206.844</v>
+        <v>276.553</v>
       </c>
     </row>
     <row r="55">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>221480.4</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2697,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>272.476</v>
+        <v>291.026</v>
       </c>
     </row>
     <row r="56">
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>274480.6</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>178.674</v>
+        <v>277.451</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_chad.xlsx
+++ b/public/data/soil/soil_table_chad.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>30340.4</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126670.2</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>221126.2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4406.1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>82.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>315403.6</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>162995.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>80871.9</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>78715.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>85471.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>71590</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>51210.1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>476.7</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>46248.6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>29937.3</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>29674</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19387.6</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127797.8</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53435.8</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>40565.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>101970.2</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>46943.2</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>45545.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1702,10 +1702,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>291.9</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>13876.2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>32781.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1775,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>98366.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>13390.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>20161.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>46019.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>74161.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>176752.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73697.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>87400.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>123828.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>96332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>42119.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>123622.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45308.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79003.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>152763.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>79796.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>125177.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>72910.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>260021</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>322618.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>30284.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>140408.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>66447.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2580,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>8869.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>35566.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>78952</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2720,7 +2720,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>38058.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
